--- a/medicine/Psychotrope/Gurten_Bier/Gurten_Bier.xlsx
+++ b/medicine/Psychotrope/Gurten_Bier/Gurten_Bier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Gurten Bier est une brasserie et une marque de bière bernoise.
@@ -512,10 +524,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom fait référence à la montagne du Gurten, sur la commune de Köniz à Wabern bei Bern.
-La brasserie a été fondée en 1864 par Johann Juker de Bolligen. Elle est devenue société anonyme en 1903. En 1970 elle est rachetée par Feldschlösschen. En 1997, la production est déplacée à Rheinfelden en Argovie. La société Gurten Bier AG disparaît à la suite de la fusion avec Feldschlösschen Getränke Holding AG en 2001[1]. Elle est ensuite brassée par Cardinal à Fribourg et après sa fermeture par Feldschlösschen à Rheinfelden[2]. Elle fait donc désormais partie du Groupe Carlsberg.
+La brasserie a été fondée en 1864 par Johann Juker de Bolligen. Elle est devenue société anonyme en 1903. En 1970 elle est rachetée par Feldschlösschen. En 1997, la production est déplacée à Rheinfelden en Argovie. La société Gurten Bier AG disparaît à la suite de la fusion avec Feldschlösschen Getränke Holding AG en 2001. Elle est ensuite brassée par Cardinal à Fribourg et après sa fermeture par Feldschlösschen à Rheinfelden. Elle fait donc désormais partie du Groupe Carlsberg.
 </t>
         </is>
       </c>
